--- a/src/analysis_examples/circadb/results_lomb/cosinor_10552740_nup62_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10552740_nup62_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.33537077654163117, 0.45603478618322335]</t>
+          <t>[0.33353520447124135, 0.45787035825361316]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>6.62958576924666e-12</v>
+        <v>1.168376506655022e-11</v>
       </c>
       <c r="N2" t="n">
-        <v>6.62958576924666e-12</v>
+        <v>1.168376506655022e-11</v>
       </c>
       <c r="O2" t="n">
         <v>-0.8553685703467711</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.0063159651138491, -0.704421175579693]</t>
+          <t>[-1.0188949146777722, -0.69184222601577]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.016398076814085e-10</v>
+        <v>4.351727866946931e-10</v>
       </c>
       <c r="R2" t="n">
-        <v>1.016398076814085e-10</v>
+        <v>4.351727866946931e-10</v>
       </c>
       <c r="S2" t="n">
         <v>0.4735614059624093</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4420150578192001, 0.5051077541056184]</t>
+          <t>[0.4419898133087714, 0.5051329986160471]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>3.158358358358427</v>
       </c>
       <c r="X2" t="n">
-        <v>2.601001001001054</v>
+        <v>2.554554554554607</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.7157157157158</v>
+        <v>3.762162162162247</v>
       </c>
     </row>
   </sheetData>
